--- a/easy-trade/easy-tms/src/main/webapp/excel/model.xlsx
+++ b/easy-trade/easy-tms/src/main/webapp/excel/model.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -35,7 +34,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型（必填，交易拥金/验券拥金）</t>
+    <t>类型（必填，交易佣金/验码佣金）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,7 +406,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/easy-trade/easy-tms/src/main/webapp/excel/model.xlsx
+++ b/easy-trade/easy-tms/src/main/webapp/excel/model.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2715" windowWidth="27450" windowHeight="10680"/>
@@ -16,25 +16,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>账号（必填）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>金额（必填，大于零的数字）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核方式（必填，奖励/惩罚）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型（必填，交易佣金/验码佣金）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道（必填,商家/买手）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>备注（可不填）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额（必填，大于零的数字）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考核方式（必填，奖励/惩罚）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型（必填，交易佣金/验码佣金）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -415,24 +419,28 @@
     <col min="2" max="2" width="28.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1">
+    <row r="1" spans="1:6" s="5" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
